--- a/needlehaystack/Exam/test_0.4_en.xlsx
+++ b/needlehaystack/Exam/test_0.4_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wcdz_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4996B94F-89D0-455C-A150-D502E4B758CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A270CEB-6F32-48E6-9034-542AD0739D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,171 +421,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>22. MTBF is measured by operating time divided by the number of failures of an asset.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>23. Maintenance cost will decrease as reliability increases.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>24. The “F” on the P-F interval indicates that equipment is still functioning.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>25. A rule of thumb is that on average an experienced planner can plan work for how many craftspeople?a. 10b. 15c. 20 or more</t>
-  </si>
-  <si>
-    <t>26. Which of the following is not a primary objective for implementing a planning process?a. Reduce reactive workb. Prevent delays during the maintenance processc. Mesh the production schedule and the maintenance schedule</t>
-  </si>
-  <si>
-    <t>27. The best method of measuring the reliability of an asset is to know:a. MTTRb. MTBFc. Both</t>
-  </si>
-  <si>
-    <t>28. With the exception of emergency work orders planning and scheduling will benefit all maintenance work.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>29. Leading KPIs predict results.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>30. The sixth S in the 6S (also called 5S plus) process stands for safety.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>31. RCM stands for:a. Regimented centers of maintenanceb. Reliability-centered maintenancec. Reliable centers of maintenance (uses best practices)</t>
-  </si>
-  <si>
-    <t>32. The objective of RCM is to preserve functions.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>33. It does not cost anything to keep a part (material) in the storeroom after we bought and paid for it.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>34. The inventory turnover ratio for an MRO store should be:a. Less than 2b. Between 4 and 6c. Over 6</t>
-  </si>
-  <si>
-    <t>35. PM compliance is a lagging KPI.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>36. Reliability is one key component of OEE.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>37. Reliability and maintainability can only be designed in.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>38. Creating a reliability culture from a reactive mode can be accomplished in a short period of time if enough resources are made available.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>39. Karl Fischer’s coulometric titration method is an effective technique to determine the metallic content (in PPM) in an oil sample.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>40. An IR thermography window is an effective method to satisfy NFPA 70E arc flash requirements.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>41. FMEA is applicable only to assets currently in use.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>42. RCM methodology can’t be used effectively on new systems being designed.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>43. Properly training the M&amp;R workforce can increase asset and plant (factory) availability.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>44. TPM is a type of maintenance performed by the operators.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>45. Lagging KPIs are the results of a process.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>46. EOQ improves the inventory turn ratio.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>47. New incoming oil from the supplier is always clean and ready to be used.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>48. Which phase of the asset life cycle has the highest cost?a. Designb. Acquisitionc. O&amp;M</t>
-  </si>
-  <si>
-    <t>49. Most of the maintenance costs become fixed:a. After installation of the assetb. During the operation phasec. During the design phase</t>
-  </si>
-  <si>
-    <t>50. RCM provides the best results when used:a. During operation (production)b. During design/developmentc. After an asset has failed or keeps failingd. During build/fabrication</t>
-  </si>
-  <si>
-    <t>51. How soon we can restore an asset is measured by:a. MTBFb. MTTRc. MTBMAd. None of the above</t>
-  </si>
-  <si>
-    <t>52. Availability is a function of:a. MTBFb. MTTRc. Uptimed. Uptime and downtime</t>
-  </si>
-  <si>
-    <t>53. The failure rate of a component/asset can be calculated by knowing:a. The number of failuresb. MTBFc. MTTRd. Uptime</t>
-  </si>
-  <si>
-    <t>54. The biggest benefit of a failure mode and effects analysis occurs during:a. The operation phaseb. The maintenance phasec. The design phased. None of the above</t>
-  </si>
-  <si>
-    <t>55. PM schedule compliance should be equal to or greater than 95%.a. Trueb. False</t>
-  </si>
-  <si>
-    <t>56. Maintainability is measured by:a. The PM schedule compliance rateb. The average time between maintenance actionsc. The percentage of time that equipment is working satisfactorilyd. The average time required to restore the equipment</t>
-  </si>
-  <si>
-    <t>57. Which process ensures that resources material and equipment are available before a job is performed?a. Planningb. Schedulingc. Inventory</t>
-  </si>
-  <si>
-    <t>58. Which analysis identifies a cost-effective approach to reduce maintenance and operational problems?a. Weibullb. FTAc. Paretod. Bottleneck</t>
-  </si>
-  <si>
-    <t>59. When a task/job is completed who should close out the work order in a CMMS system?a. Person who did the workb. Supervisorc. Plannerd. Scheduler</t>
-  </si>
-  <si>
-    <t>60. The objective of an agreement between operations and maintenance is to:a. Clarify who is responsible when a problem arisesb. Minimize confusionc. Clarify roles and responsibilitiesd. All of the above</t>
-  </si>
-  <si>
-    <t>61. Which work order characteristic (element) is most important?a. Description of work completedb. Cost of workc. Asset IDd. Cost/charge number</t>
-  </si>
-  <si>
-    <t>62. Which factor is most influential in developing the skills of the M&amp;R team members?a. Current maintenance repair skillsb. Current plant performance requirementsc. Future plant performance requirementsd. None of the above</t>
-  </si>
-  <si>
-    <t>63. The first stage of team development is known as:a. Normingb. Formingc. Stormingd. Warming</t>
-  </si>
-  <si>
-    <t>64. Which maintenance strategy has a goal of zero defects zero breakdowns and an effective workplace design?a. CMb. TPMc. RTF</t>
-  </si>
-  <si>
-    <t>65. A mission statement is a statement of an organization’s:a. Structureb. Roles and responsibilitiesc. Purpose—what the organization wants to dod. Net worth</t>
-  </si>
-  <si>
-    <t>66. In which phase of the asset’s life cycle is the highest cost incurred?a. Design and procureb. Build and installc. Operate and maintaind. Decommission and dispose</t>
-  </si>
-  <si>
-    <t>67. Optimizing inventory levels by ordering the right quantity at a specific time interval in order to minimize inventory cost but still meet customer needs is called:a. Inventory cost analysisb. Economy order quantityc. Inventory turns analysis</t>
-  </si>
-  <si>
-    <t>68. Who is a stakeholder?a. A person responsible for preparing the project budgetb. A person or organization that can affect be affected by or believe to be affected by a decision or activityc. A person or organization that performs/supports change management to make a new improvement project succeed</t>
-  </si>
-  <si>
-    <t>69. The last step in a basic communication model is to:a. Decodeb. Encodec. Provide feedback/responsed. Transmit a message</t>
-  </si>
-  <si>
-    <t>70. RPN (risk priority number) is the:a. Sum of severity (S) occurrence (O) and detection (D)b. Product of severity (S) occurrence (O)</t>
-  </si>
-  <si>
-    <t>71. What does a change agent do?a. Supports changeb. Initiates changec. Opposes changed. Helps implement change</t>
-  </si>
-  <si>
-    <t>72. Which of the following is a reliability tactic?a. Implementing a preventive maintenance programb. Improving individual components to increase MTBFc. Training technicians to improve repair time and reduce MTTRd. Optimizing PM to reduce maintenance costs</t>
-  </si>
-  <si>
-    <t>73. TPM (total productive maintenance) has the potential of providing almost a seamless integration between:a. Production and qualityb. Maintenance and qualityc. Production and maintenanced. Production and engineering</t>
-  </si>
-  <si>
-    <t>74. The process that is intended to find potential failures and repair or replace bad components before they fail is known as:a. Preventive maintenanceb. Failure-finding maintenancec. Troubleshooting maintenanced. Breakdown maintenance</t>
-  </si>
-  <si>
-    <t>75. A maintenance engineer has a list of pump failure modes and frequency of occurrence. Which of the following diagrams can help to prioritize maintenance tasks?a. Ishikawa diagramb. Bathtub curvec. Pareto chartd. Reliability growth diagram</t>
-  </si>
-  <si>
-    <t>76. A fault tree analysis (FTA) typically generates aa. Set of statistical datab. Report on the relative costs of design optionsc. Diagram showing a hierarchy of failure causesd. List for a specific plan of action</t>
-  </si>
-  <si>
     <t>1. Best practices are practices that are defined and applied by an organization to improve its operation. These practices may or may not be proven, but results are found to be acceptable. a. True b. False</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -666,7 +501,227 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>21. What percentage of maintenance work should be proactive?a. 100%b. 85% or morec. 50%</t>
+    <t>21. What percentage of maintenance work should be proactive?a. 100% b. 85% or more c. 50%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. MTBF is measured by operating time divided by the number of failures of an asset. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. Maintenance cost will decrease as reliability increases. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. The “F” on the P-F interval indicates that equipment is still functioning.a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. A rule of thumb is that on average an experienced planner can plan work for how many craftspeople? a. 10 b. 15 c. 20 or more</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26. Which of the following is not a primary objective for implementing a planning process? a. Reduce reactive work b. Prevent delays during the maintenance process c. Mesh the production schedule and the maintenance schedule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>27. The best method of measuring the reliability of an asset is to know: a. MTTR b. MTBF c. Both</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. With the exception of emergency work orders planning and scheduling will benefit all maintenance work. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>29. Leading KPIs predict results. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30. The sixth S in the 6S (also called 5S plus) process stands for safety. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. RCM stands for: a. Regimented centers of maintenance b. Reliability-centered maintenance c. Reliable centers of maintenance (uses best practices)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>76. A fault tree analysis (FTA) typically generates a a. Set of statistical data b. Report on the relative costs of design options c. Diagram showing a hierarchy of failure causesd. List for a specific plan of action</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>75. A maintenance engineer has a list of pump failure modes and frequency of occurrence. Which of the following diagrams can help to prioritize maintenance tasks? a. Ishikawa diagram b. Bathtub curve c. Pareto chart d. Reliability growth diagram</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>74. The process that is intended to find potential failures and repair or replace bad components before they fail is known as: a. Preventive maintenance b. Failure-finding maintenance c. Troubleshooting maintenance d. Breakdown maintenance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>73. TPM (total productive maintenance) has the potential of providing almost a seamless integration between: a. Production and quality b. Maintenance and quality c. Production and maintenance d. Production and engineering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>72. Which of the following is a reliability tactic? a. Implementing a preventive maintenance program b. Improving individual components to increase MTBF c. Training technicians to improve repair time and reduce MTTR d. Optimizing PM to reduce maintenance costs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>71. What does a change agent do? a. Supports change b. Initiates change c. Opposes changed. Helps implement change</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>70. RPN (risk priority number) is the: a. Sum of severity (S) occurrence (O) and detection (D) b. Product of severity (S) occurrence (O)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>69. The last step in a basic communication model is to: a. Decode b. Encode c. Provide feedback/responsed. Transmit a message</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>68. Who is a stakeholder? a. A person responsible for preparing the project budget b. A person or organization that can affect be affected by or believe to be affected by a decision or activity c. A person or organization that performs/supports change management to make a new improvement project succeed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>67. Optimizing inventory levels by ordering the right quantity at a specific time interval in order to minimize inventory cost but still meet customer needs is called: a. Inventory cost analysis b. Economy order quantity c. Inventory turns analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>66. In which phase of the asset’s life cycle is the highest cost incurred? a. Design and procure b. Build and install c. Operate and maintain d. Decommission and dispose</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>65. A mission statement is a statement of an organization’s: a. Structure b. Roles and responsibilities c. Purpose—what the organization wants to do d. Net worth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>64. Which maintenance strategy has a goal of zero defects zero breakdowns and an effective workplace design? a. CM b. TPM c. RTF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>63. The first stage of team development is known as:a. Norming b. Forming c. Storming d. Warming</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>62. Which factor is most influential in developing the skills of the M&amp;R team members? a. Current maintenance repair skills b. Current plant performance requirements c. Future plant performance requirements d. None of the above</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>61. Which work order characteristic (element) is most important? a. Description of work completed b. Cost of work c. Asset ID d. Cost/charge number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60. The objective of an agreement between operations and maintenance is to: a. Clarify who is responsible when a problem arises b. Minimize confusion c. Clarify roles and responsibilities d. All of the above</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>59. When a task/job is completed who should close out the work order in a CMMS system? a. Person who did the work b. Supervisor c. Planner d. Scheduler</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>58. Which analysis identifies a cost-effective approach to reduce maintenance and operational problems? a. Weibull b. FTA c. Pareto d. Bottleneck</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>57. Which process ensures that resources material and equipment are available before a job is performed? a. Planning b. Scheduling c. Inventory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. Maintainability is measured by: a. The PM schedule compliance rate b. The average time between maintenance actions c. The percentage of time that equipment is working satisfactorily d. The average time required to restore the equipment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. PM schedule compliance should be equal to or greater than 95%. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. The biggest benefit of a failure mode and effects analysis occurs during: a. The operation phase b. The maintenance phase c. The design phase d. None of the above</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. The failure rate of a component/asset can be calculated by knowing: a. The number of failures b. MTBF c. MTTR d. Uptime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>52. Availability is a function of: a. MTBF b. MTTR c. Uptime d. Uptime and downtime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51. How soon we can restore an asset is measured by:a. MTBF b. MTTR c. MTBMA d. None of the above</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50. RCM provides the best results when used: a. During operation (production) b. During design/development c. After an asset has failed or keeps failing d. During build/fabrication</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>49. Most of the maintenance costs become fixed: a. After installation of the asset b. During the operation phase c. During the design phase</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>48. Which phase of the asset life cycle has the highest cost? a. Design b. Acquisition c. O&amp;M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>47. New incoming oil from the supplier is always clean and ready to be used. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>46. EOQ improves the inventory turn ratio. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>45. Lagging KPIs are the results of a process. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>44. TPM is a type of maintenance performed by the operators. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>43. Properly training the M&amp;R workforce can increase asset and plant (factory) availability. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. RCM methodology can’t be used effectively on new systems being designed. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. FMEA is applicable only to assets currently in use. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40. An IR thermography window is an effective method to satisfy NFPA 70E arc flash requirements. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>39. Karl Fischer’s coulometric titration method is an effective technique to determine the metallic content (in PPM) in an oil sample. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>38. Creating a reliability culture from a reactive mode can be accomplished in a short period of time if enough resources are made available. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37. Reliability and maintainability can only be designed in. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>36. Reliability is one key component of OEE. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. PM compliance is a lagging KPI. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. The inventory turnover ratio for an MRO store should be: a. Less than 2 b. Between 4 and 6 c. Over 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. It does not cost anything to keep a part (material) in the storeroom after we bought and paid for it. a. True b. False</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>32. The objective of RCM is to preserve functions. a. True b. False</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1266,18 +1321,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1637,14 +1689,14 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="113.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="155.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="164.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="99.109375" bestFit="1" customWidth="1"/>
@@ -1657,7 +1709,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1683,8 +1735,8 @@
       <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>183</v>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1709,8 +1761,8 @@
       <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>184</v>
+      <c r="C3" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1735,8 +1787,8 @@
       <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>185</v>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1761,8 +1813,8 @@
       <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>186</v>
+      <c r="C5" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -1787,8 +1839,8 @@
       <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>187</v>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1813,8 +1865,8 @@
       <c r="B7" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>188</v>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -1839,8 +1891,8 @@
       <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>189</v>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -1865,8 +1917,8 @@
       <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>190</v>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1891,8 +1943,8 @@
       <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>191</v>
+      <c r="C10" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1917,8 +1969,8 @@
       <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>192</v>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1943,8 +1995,8 @@
       <c r="B12" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>193</v>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1969,8 +2021,8 @@
       <c r="B13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>194</v>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -1995,8 +2047,8 @@
       <c r="B14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>195</v>
+      <c r="C14" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
@@ -2021,8 +2073,8 @@
       <c r="B15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>196</v>
+      <c r="C15" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -2047,8 +2099,8 @@
       <c r="B16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>197</v>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
@@ -2066,15 +2118,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>198</v>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
@@ -2099,8 +2151,8 @@
       <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>199</v>
+      <c r="C18" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
@@ -2125,8 +2177,8 @@
       <c r="B19" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>200</v>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
@@ -2144,15 +2196,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>201</v>
+      <c r="C20" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>36</v>
@@ -2177,8 +2229,8 @@
       <c r="B21" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>202</v>
+      <c r="C21" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
@@ -2203,8 +2255,8 @@
       <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>203</v>
+      <c r="C22" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
@@ -2229,8 +2281,8 @@
       <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>128</v>
+      <c r="C23" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>42</v>
@@ -2255,8 +2307,8 @@
       <c r="B24" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>129</v>
+      <c r="C24" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>43</v>
@@ -2281,8 +2333,8 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>130</v>
+      <c r="C25" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>45</v>
@@ -2307,8 +2359,8 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>131</v>
+      <c r="C26" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>46</v>
@@ -2333,8 +2385,8 @@
       <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>47</v>
@@ -2359,8 +2411,8 @@
       <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>133</v>
+      <c r="C28" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>49</v>
@@ -2385,8 +2437,8 @@
       <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>134</v>
+      <c r="C29" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>51</v>
@@ -2411,8 +2463,8 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>135</v>
+      <c r="C30" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>52</v>
@@ -2437,8 +2489,8 @@
       <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>136</v>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>54</v>
@@ -2463,8 +2515,8 @@
       <c r="B32" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>137</v>
+      <c r="C32" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>55</v>
@@ -2489,8 +2541,8 @@
       <c r="B33" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>138</v>
+      <c r="C33" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>56</v>
@@ -2515,8 +2567,8 @@
       <c r="B34" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>139</v>
+      <c r="C34" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>57</v>
@@ -2541,8 +2593,8 @@
       <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>140</v>
+      <c r="C35" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>59</v>
@@ -2567,8 +2619,8 @@
       <c r="B36" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>141</v>
+      <c r="C36" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>60</v>
@@ -2593,8 +2645,8 @@
       <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>142</v>
+      <c r="C37" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>61</v>
@@ -2619,8 +2671,8 @@
       <c r="B38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>143</v>
+      <c r="C38" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>126</v>
@@ -2645,8 +2697,8 @@
       <c r="B39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>144</v>
+      <c r="C39" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>127</v>
@@ -2671,8 +2723,8 @@
       <c r="B40" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>145</v>
+      <c r="C40" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>63</v>
@@ -2697,8 +2749,8 @@
       <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>146</v>
+      <c r="C41" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>64</v>
@@ -2723,8 +2775,8 @@
       <c r="B42" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>147</v>
+      <c r="C42" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>66</v>
@@ -2749,8 +2801,8 @@
       <c r="B43" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>148</v>
+      <c r="C43" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>68</v>
@@ -2775,8 +2827,8 @@
       <c r="B44" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>149</v>
+      <c r="C44" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>69</v>
@@ -2801,8 +2853,8 @@
       <c r="B45" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>150</v>
+      <c r="C45" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>71</v>
@@ -2827,8 +2879,8 @@
       <c r="B46" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>151</v>
+      <c r="C46" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>72</v>
@@ -2853,8 +2905,8 @@
       <c r="B47" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>152</v>
+      <c r="C47" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>73</v>
@@ -2879,8 +2931,8 @@
       <c r="B48" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>153</v>
+      <c r="C48" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>74</v>
@@ -2905,8 +2957,8 @@
       <c r="B49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>154</v>
+      <c r="C49" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>75</v>
@@ -2931,8 +2983,8 @@
       <c r="B50" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>155</v>
+      <c r="C50" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>76</v>
@@ -2957,8 +3009,8 @@
       <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>156</v>
+      <c r="C51" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>77</v>
@@ -2983,8 +3035,8 @@
       <c r="B52" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>157</v>
+      <c r="C52" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
@@ -3009,8 +3061,8 @@
       <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>158</v>
+      <c r="C53" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>79</v>
@@ -3035,8 +3087,8 @@
       <c r="B54" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>159</v>
+      <c r="C54" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>80</v>
@@ -3061,8 +3113,8 @@
       <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>160</v>
+      <c r="C55" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>81</v>
@@ -3087,8 +3139,8 @@
       <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>161</v>
+      <c r="C56" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>83</v>
@@ -3106,15 +3158,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>162</v>
+      <c r="C57" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>84</v>
@@ -3139,8 +3191,8 @@
       <c r="B58" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>163</v>
+      <c r="C58" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>85</v>
@@ -3165,8 +3217,8 @@
       <c r="B59" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>164</v>
+      <c r="C59" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>86</v>
@@ -3191,8 +3243,8 @@
       <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>165</v>
+      <c r="C60" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>88</v>
@@ -3217,8 +3269,8 @@
       <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>166</v>
+      <c r="C61" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>89</v>
@@ -3243,8 +3295,8 @@
       <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>167</v>
+      <c r="C62" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>91</v>
@@ -3262,15 +3314,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>168</v>
+      <c r="C63" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>92</v>
@@ -3295,8 +3347,8 @@
       <c r="B64" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>169</v>
+      <c r="C64" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>94</v>
@@ -3321,8 +3373,8 @@
       <c r="B65" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>170</v>
+      <c r="C65" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>95</v>
@@ -3347,8 +3399,8 @@
       <c r="B66" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>171</v>
+      <c r="C66" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>96</v>
@@ -3373,8 +3425,8 @@
       <c r="B67" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>172</v>
+      <c r="C67" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>98</v>
@@ -3392,15 +3444,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>173</v>
+      <c r="C68" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>99</v>
@@ -3418,15 +3470,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>174</v>
+      <c r="C69" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>100</v>
@@ -3451,8 +3503,8 @@
       <c r="B70" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>175</v>
+      <c r="C70" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>101</v>
@@ -3477,8 +3529,8 @@
       <c r="B71" t="s">
         <v>112</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>176</v>
+      <c r="C71" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>102</v>
@@ -3503,8 +3555,8 @@
       <c r="B72" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>177</v>
+      <c r="C72" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>104</v>
@@ -3522,15 +3574,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>178</v>
+      <c r="C73" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>105</v>
@@ -3548,15 +3600,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>179</v>
+      <c r="C74" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>106</v>
@@ -3574,15 +3626,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>111</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>180</v>
+      <c r="C75" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>107</v>
@@ -3600,15 +3652,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>181</v>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>109</v>
@@ -3626,15 +3678,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>182</v>
+      <c r="C77" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>110</v>
